--- a/replication/temp/tableA1_panel_multiple_imputation.xlsx
+++ b/replication/temp/tableA1_panel_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>eq_mix</t>
   </si>
@@ -37,16 +37,31 @@
     <t>['all']</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.0)</t>
   </si>
   <si>
     <t>['hour']</t>
   </si>
   <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>(0.09)</t>
+  </si>
+  <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.06)</t>
+  </si>
+  <si>
     <t>['year', 'weekend', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
@@ -447,16 +462,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -490,19 +505,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -536,19 +551,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/replication/temp/tableA1_panel_multiple_imputation.xlsx
+++ b/replication/temp/tableA1_panel_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>eq_mix</t>
   </si>
@@ -40,34 +40,37 @@
     <t>(0.0)</t>
   </si>
   <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
     <t>['hour']</t>
   </si>
   <si>
+    <t>['year', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>['year', 'weekend', 'hour']</t>
+  </si>
+  <si>
+    <t>['year', 'state', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
     <t>(0.04)</t>
   </si>
   <si>
-    <t>(0.09)</t>
-  </si>
-  <si>
-    <t>['year', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>(0.06)</t>
-  </si>
-  <si>
-    <t>['year', 'weekend', 'hour']</t>
+    <t>['year', 'state', 'weekend', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
   </si>
   <si>
     <t>(0.03)</t>
-  </si>
-  <si>
-    <t>['year', 'state', 'hour']</t>
-  </si>
-  <si>
-    <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
 </sst>
 </file>
@@ -459,19 +462,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -505,19 +508,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -583,10 +586,10 @@
         <v>200</v>
       </c>
       <c r="F7">
-        <v>4000</v>
+        <v>3999.5</v>
       </c>
       <c r="G7">
-        <v>6733</v>
+        <v>6742</v>
       </c>
     </row>
   </sheetData>
